--- a/biology/Médecine/Balt/Balt.xlsx
+++ b/biology/Médecine/Balt/Balt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Balt est une entreprise française, fabricante de matériel médical, basée à Montmorency (Val-d'Oise). Elle est spécialisée dans les dispositifs médicaux dédiée au traitement des maladies vasculaires du cerveau, notamment des accidents vasculaires cérébraux (AVC).
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été fondée en 1977, par Leopold Płowiecki puis développée par son fils Nicolas jusqu'en 2018[2]. PME familiale à l'origine[3], elle s’est développée à l’international, grâce à l’entrée au capital du fonds d’investissement Bridgepoint, en 2015, en complément de l'actionnariat familial[4]. Elle est dirigée par Pascal Girin depuis fin 2018, déjà à la tête de Balt International depuis 2016.
-L’entreprise s'est initialement construite autour de microtubes extrudés en plastiques, destinés à l’industrie pharmaceutique[5]. En 1987, la mise au point d’un microcathéter permet de soigner les malformations artério-veineuses. Commercialisé en 2018, l'un des derniers produits lancés, le Silk Vista Baby est le plus petit stent intracrânien replié au monde[6].
-Le chiffre d’affaires a triplé entre 2015 et 2020 et les effectifs ont été multipliés par 4 avec 500 salariés dans le monde en 2020[7]. Elle exporte 90% de sa production dans 100 pays dans le monde. Entre 2016 et 2019, l’entreprise a racheté une start-up américaine (Blockade medical), produisant également des dispositifs médicaux, ainsi que plusieurs de ses distributeurs en europe, en Chine, en Inde et au Brésil, lui permettant d'être présente à travers le monde, avec 10 implantations.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été fondée en 1977, par Leopold Płowiecki puis développée par son fils Nicolas jusqu'en 2018. PME familiale à l'origine, elle s’est développée à l’international, grâce à l’entrée au capital du fonds d’investissement Bridgepoint, en 2015, en complément de l'actionnariat familial. Elle est dirigée par Pascal Girin depuis fin 2018, déjà à la tête de Balt International depuis 2016.
+L’entreprise s'est initialement construite autour de microtubes extrudés en plastiques, destinés à l’industrie pharmaceutique. En 1987, la mise au point d’un microcathéter permet de soigner les malformations artério-veineuses. Commercialisé en 2018, l'un des derniers produits lancés, le Silk Vista Baby est le plus petit stent intracrânien replié au monde.
+Le chiffre d’affaires a triplé entre 2015 et 2020 et les effectifs ont été multipliés par 4 avec 500 salariés dans le monde en 2020. Elle exporte 90% de sa production dans 100 pays dans le monde. Entre 2016 et 2019, l’entreprise a racheté une start-up américaine (Blockade medical), produisant également des dispositifs médicaux, ainsi que plusieurs de ses distributeurs en europe, en Chine, en Inde et au Brésil, lui permettant d'être présente à travers le monde, avec 10 implantations.
 </t>
         </is>
       </c>
